--- a/Code/Results/Cases/Case_8_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015958498764338</v>
+        <v>1.012490926567696</v>
       </c>
       <c r="D2">
-        <v>1.036780265365781</v>
+        <v>1.033523668260224</v>
       </c>
       <c r="E2">
-        <v>1.030705164646782</v>
+        <v>1.027817347567817</v>
       </c>
       <c r="F2">
-        <v>1.04265873305177</v>
+        <v>1.040023864160336</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056745234595533</v>
+        <v>1.055038415048756</v>
       </c>
       <c r="J2">
-        <v>1.037672150046041</v>
+        <v>1.034304348429913</v>
       </c>
       <c r="K2">
-        <v>1.047749913458972</v>
+        <v>1.044534915545475</v>
       </c>
       <c r="L2">
-        <v>1.041752680449943</v>
+        <v>1.038902282101263</v>
       </c>
       <c r="M2">
-        <v>1.05355411114803</v>
+        <v>1.050952402277726</v>
       </c>
       <c r="N2">
-        <v>1.039145763521766</v>
+        <v>1.028831299349873</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050956802698486</v>
+        <v>1.048897751039991</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044833588673619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04256904773853</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023866716343718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019730437651516</v>
+        <v>1.015934166267778</v>
       </c>
       <c r="D3">
-        <v>1.039312681377856</v>
+        <v>1.035756003179493</v>
       </c>
       <c r="E3">
-        <v>1.033600967097176</v>
+        <v>1.030435325972569</v>
       </c>
       <c r="F3">
-        <v>1.045363274086534</v>
+        <v>1.042482590285289</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.057592114335811</v>
+        <v>1.055726073432542</v>
       </c>
       <c r="J3">
-        <v>1.039697309792713</v>
+        <v>1.035999677898912</v>
       </c>
       <c r="K3">
-        <v>1.049466094890826</v>
+        <v>1.045950940985276</v>
       </c>
       <c r="L3">
-        <v>1.043821237126197</v>
+        <v>1.040693045865406</v>
       </c>
       <c r="M3">
-        <v>1.055446848284113</v>
+        <v>1.052599290053213</v>
       </c>
       <c r="N3">
-        <v>1.041173799227566</v>
+        <v>1.029781814169041</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.052454754417337</v>
+        <v>1.050201136196353</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046044415749112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043567365103062</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024145180639535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022129725919215</v>
+        <v>1.018126184668671</v>
       </c>
       <c r="D4">
-        <v>1.040925591631555</v>
+        <v>1.037179080429593</v>
       </c>
       <c r="E4">
-        <v>1.035448509216383</v>
+        <v>1.032107424605065</v>
       </c>
       <c r="F4">
-        <v>1.047088439759476</v>
+        <v>1.044052444700747</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058118411030306</v>
+        <v>1.056151439098008</v>
       </c>
       <c r="J4">
-        <v>1.040983804812666</v>
+        <v>1.037077317355918</v>
       </c>
       <c r="K4">
-        <v>1.050553951389902</v>
+        <v>1.046848575394398</v>
       </c>
       <c r="L4">
-        <v>1.045137128731152</v>
+        <v>1.041833189709909</v>
       </c>
       <c r="M4">
-        <v>1.056649919031814</v>
+        <v>1.053646750161825</v>
       </c>
       <c r="N4">
-        <v>1.042462121218011</v>
+        <v>1.030386007083457</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053406888194908</v>
+        <v>1.051030119219355</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046814498105805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044203032837849</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024319328098493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023131792366471</v>
+        <v>1.019041953076634</v>
       </c>
       <c r="D5">
-        <v>1.041601307439974</v>
+        <v>1.037775733518165</v>
       </c>
       <c r="E5">
-        <v>1.03622188543803</v>
+        <v>1.032807705379345</v>
       </c>
       <c r="F5">
-        <v>1.047810519463799</v>
+        <v>1.044709835599102</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058336436107418</v>
+        <v>1.056327377542116</v>
       </c>
       <c r="J5">
-        <v>1.041522014711696</v>
+        <v>1.037528386816825</v>
       </c>
       <c r="K5">
-        <v>1.051009606756942</v>
+        <v>1.047224931247823</v>
       </c>
       <c r="L5">
-        <v>1.045687800736954</v>
+        <v>1.042310569985151</v>
       </c>
       <c r="M5">
-        <v>1.057153214533817</v>
+        <v>1.054085172123633</v>
       </c>
       <c r="N5">
-        <v>1.043001095436832</v>
+        <v>1.030638904340325</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053805205766636</v>
+        <v>1.051377095753084</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047143781304158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044476970922019</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024392213505596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023303172363232</v>
+        <v>1.019198425689093</v>
       </c>
       <c r="D6">
-        <v>1.041718871808407</v>
+        <v>1.037879767913355</v>
       </c>
       <c r="E6">
-        <v>1.036354771411199</v>
+        <v>1.032927968336324</v>
       </c>
       <c r="F6">
-        <v>1.047934611400464</v>
+        <v>1.044822802471863</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058375051781475</v>
+        <v>1.056358787131028</v>
       </c>
       <c r="J6">
-        <v>1.041615657895289</v>
+        <v>1.037606981425442</v>
       </c>
       <c r="K6">
-        <v>1.051090215778886</v>
+        <v>1.047291969168711</v>
       </c>
       <c r="L6">
-        <v>1.045783305202934</v>
+        <v>1.042393418526133</v>
       </c>
       <c r="M6">
-        <v>1.057240580479744</v>
+        <v>1.05416138156275</v>
       </c>
       <c r="N6">
-        <v>1.043094871604486</v>
+        <v>1.030682969256478</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053874348805938</v>
+        <v>1.051437409519594</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047209438525347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044533917603037</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024405706039893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022153043718711</v>
+        <v>1.018167236435793</v>
       </c>
       <c r="D7">
-        <v>1.040946572268548</v>
+        <v>1.03721197165536</v>
       </c>
       <c r="E7">
-        <v>1.035467959435011</v>
+        <v>1.032141893512266</v>
       </c>
       <c r="F7">
-        <v>1.047106648051407</v>
+        <v>1.044082375049297</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058127515694399</v>
+        <v>1.056166898604564</v>
       </c>
       <c r="J7">
-        <v>1.041000670454137</v>
+        <v>1.037111443689797</v>
       </c>
       <c r="K7">
-        <v>1.050571858461621</v>
+        <v>1.046878246030287</v>
       </c>
       <c r="L7">
-        <v>1.04515349928526</v>
+        <v>1.041864397287156</v>
       </c>
       <c r="M7">
-        <v>1.056665109130204</v>
+        <v>1.053673522869582</v>
       </c>
       <c r="N7">
-        <v>1.042479010810628</v>
+        <v>1.030457091316198</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053418909928914</v>
+        <v>1.051051307718484</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046847081922705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.0442459694828</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024328342774238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017254268997991</v>
+        <v>1.013735673591498</v>
       </c>
       <c r="D8">
-        <v>1.03765616791119</v>
+        <v>1.034339237888642</v>
       </c>
       <c r="E8">
-        <v>1.031700640883602</v>
+        <v>1.028769922056646</v>
       </c>
       <c r="F8">
-        <v>1.043588494097426</v>
+        <v>1.040910564346986</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057043539131272</v>
+        <v>1.055304841912845</v>
       </c>
       <c r="J8">
-        <v>1.038373531985922</v>
+        <v>1.034952799840438</v>
       </c>
       <c r="K8">
-        <v>1.048349122400712</v>
+        <v>1.04507331609716</v>
       </c>
       <c r="L8">
-        <v>1.04246766816593</v>
+        <v>1.039573793419835</v>
       </c>
       <c r="M8">
-        <v>1.054208709096953</v>
+        <v>1.051563487233424</v>
       </c>
       <c r="N8">
-        <v>1.039848141504451</v>
+        <v>1.0293523736085</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051474865531532</v>
+        <v>1.04938137810358</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04527998011174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042974748687357</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023980421948738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008275471636609</v>
+        <v>1.005562875945633</v>
       </c>
       <c r="D9">
-        <v>1.031635474228712</v>
+        <v>1.029047444410702</v>
       </c>
       <c r="E9">
-        <v>1.024838892528787</v>
+        <v>1.022587756005307</v>
       </c>
       <c r="F9">
-        <v>1.037178259272372</v>
+        <v>1.035100058217301</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054954500398688</v>
+        <v>1.053601316057654</v>
       </c>
       <c r="J9">
-        <v>1.033539348366847</v>
+        <v>1.03092071254223</v>
       </c>
       <c r="K9">
-        <v>1.044235323322417</v>
+        <v>1.041686192787373</v>
       </c>
       <c r="L9">
-        <v>1.037541432209662</v>
+        <v>1.035324692363834</v>
       </c>
       <c r="M9">
-        <v>1.04969562760377</v>
+        <v>1.047648220135863</v>
       </c>
       <c r="N9">
-        <v>1.035007092790148</v>
+        <v>1.027110802158277</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047903108896638</v>
+        <v>1.046282737804483</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042368145939218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040576424894457</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023300474558098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002103047303885</v>
+        <v>1.00004541934408</v>
       </c>
       <c r="D10">
-        <v>1.027526097380731</v>
+        <v>1.025506533102011</v>
       </c>
       <c r="E10">
-        <v>1.020176131621849</v>
+        <v>1.018475536341029</v>
       </c>
       <c r="F10">
-        <v>1.03285061697602</v>
+        <v>1.031250877757986</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053473051111591</v>
+        <v>1.052419560569007</v>
       </c>
       <c r="J10">
-        <v>1.030233473458573</v>
+        <v>1.028257235350143</v>
       </c>
       <c r="K10">
-        <v>1.041415530478243</v>
+        <v>1.039430040360041</v>
       </c>
       <c r="L10">
-        <v>1.034190410969592</v>
+        <v>1.032519033841168</v>
       </c>
       <c r="M10">
-        <v>1.046651037132993</v>
+        <v>1.045077917201496</v>
       </c>
       <c r="N10">
-        <v>1.031696523160315</v>
+        <v>1.025849558837753</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045544541250827</v>
+        <v>1.044299606290937</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040391094269692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038999593777101</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022848665717717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9998000005487939</v>
+        <v>0.9980874907804033</v>
       </c>
       <c r="D11">
-        <v>1.026101571931713</v>
+        <v>1.024359910929809</v>
       </c>
       <c r="E11">
-        <v>1.018610640620379</v>
+        <v>1.017197926087136</v>
       </c>
       <c r="F11">
-        <v>1.031632545283734</v>
+        <v>1.030278284888179</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.053029739613139</v>
+        <v>1.052123182292118</v>
       </c>
       <c r="J11">
-        <v>1.029181102099677</v>
+        <v>1.027540049379865</v>
       </c>
       <c r="K11">
-        <v>1.04054748502945</v>
+        <v>1.038836606149779</v>
       </c>
       <c r="L11">
-        <v>1.033189919462706</v>
+        <v>1.031802642558405</v>
       </c>
       <c r="M11">
-        <v>1.045981596028243</v>
+        <v>1.044650927896619</v>
       </c>
       <c r="N11">
-        <v>1.030642657313381</v>
+        <v>1.02589048291318</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045447486349755</v>
+        <v>1.044394944332881</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039809984198863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038615890697807</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022775664766046</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9990820414965438</v>
+        <v>0.9974719019840302</v>
       </c>
       <c r="D12">
-        <v>1.02569536098643</v>
+        <v>1.024035008634409</v>
       </c>
       <c r="E12">
-        <v>1.018191897268112</v>
+        <v>1.016862462138163</v>
       </c>
       <c r="F12">
-        <v>1.031417420374514</v>
+        <v>1.030135848673476</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052936321283473</v>
+        <v>1.052072907301546</v>
       </c>
       <c r="J12">
-        <v>1.028925301848255</v>
+        <v>1.027383642177394</v>
       </c>
       <c r="K12">
-        <v>1.040346297858379</v>
+        <v>1.038715781369349</v>
       </c>
       <c r="L12">
-        <v>1.032978675749989</v>
+        <v>1.031673580808663</v>
       </c>
       <c r="M12">
-        <v>1.045966488612374</v>
+        <v>1.0447076048706</v>
       </c>
       <c r="N12">
-        <v>1.030386493796262</v>
+        <v>1.025995312068723</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045759579231625</v>
+        <v>1.044764150301353</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039667740069269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038530466217514</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.0227787869629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9995524345674218</v>
+        <v>0.9978476401515456</v>
       </c>
       <c r="D13">
-        <v>1.026064025401468</v>
+        <v>1.024327594488459</v>
       </c>
       <c r="E13">
-        <v>1.018642908460921</v>
+        <v>1.017231276050535</v>
       </c>
       <c r="F13">
-        <v>1.031980938286459</v>
+        <v>1.030633008208744</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.053121231528328</v>
+        <v>1.052217977234642</v>
       </c>
       <c r="J13">
-        <v>1.029283057875128</v>
+        <v>1.027650416493149</v>
       </c>
       <c r="K13">
-        <v>1.040665937487777</v>
+        <v>1.038960579381808</v>
       </c>
       <c r="L13">
-        <v>1.033378583116335</v>
+        <v>1.031992682404862</v>
       </c>
       <c r="M13">
-        <v>1.046477987158669</v>
+        <v>1.04515380861186</v>
       </c>
       <c r="N13">
-        <v>1.030744757877728</v>
+        <v>1.026102385003847</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046438912323738</v>
+        <v>1.045392113445783</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039891256422098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038700819991792</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022846092927074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000420928675</v>
+        <v>0.9985645019007561</v>
       </c>
       <c r="D14">
-        <v>1.026674495763835</v>
+        <v>1.024816482135449</v>
       </c>
       <c r="E14">
-        <v>1.019352990863249</v>
+        <v>1.017812692940651</v>
       </c>
       <c r="F14">
-        <v>1.03272880052601</v>
+        <v>1.031274350658056</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053377082632124</v>
+        <v>1.052409908466415</v>
       </c>
       <c r="J14">
-        <v>1.029811836046413</v>
+        <v>1.028032861050481</v>
       </c>
       <c r="K14">
-        <v>1.04112664578943</v>
+        <v>1.039301470710903</v>
       </c>
       <c r="L14">
-        <v>1.033935442380467</v>
+        <v>1.032422867535858</v>
       </c>
       <c r="M14">
-        <v>1.047075007797168</v>
+        <v>1.045645861991461</v>
       </c>
       <c r="N14">
-        <v>1.031274286974668</v>
+        <v>1.026181827559205</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047083193166538</v>
+        <v>1.045953566061019</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040218403667562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038943389363064</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022923997831306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00089669319348</v>
+        <v>0.9989621487493738</v>
       </c>
       <c r="D15">
-        <v>1.02699925848846</v>
+        <v>1.025078538691936</v>
       </c>
       <c r="E15">
-        <v>1.019723147602075</v>
+        <v>1.018117180765691</v>
       </c>
       <c r="F15">
-        <v>1.033092271522955</v>
+        <v>1.031582852770481</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053504251212047</v>
+        <v>1.052504058172244</v>
       </c>
       <c r="J15">
-        <v>1.030081352797773</v>
+        <v>1.028226816719168</v>
       </c>
       <c r="K15">
-        <v>1.041360155564492</v>
+        <v>1.039473126311995</v>
       </c>
       <c r="L15">
-        <v>1.034212542016512</v>
+        <v>1.032635258173391</v>
       </c>
       <c r="M15">
-        <v>1.047347365665352</v>
+        <v>1.045864006750967</v>
       </c>
       <c r="N15">
-        <v>1.031544186470729</v>
+        <v>1.026210683272673</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.047335808046762</v>
+        <v>1.046163360412021</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040389332472876</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039071160610308</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022960194871576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003426353038663</v>
+        <v>1.001110892604664</v>
       </c>
       <c r="D16">
-        <v>1.028679356465271</v>
+        <v>1.026449780378294</v>
       </c>
       <c r="E16">
-        <v>1.021618638212822</v>
+        <v>1.019694608609339</v>
       </c>
       <c r="F16">
-        <v>1.034843902343608</v>
+        <v>1.0330647970759</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054119727950369</v>
+        <v>1.052956643992728</v>
       </c>
       <c r="J16">
-        <v>1.031428332718658</v>
+        <v>1.029203860111675</v>
       </c>
       <c r="K16">
-        <v>1.042514193144607</v>
+        <v>1.040322026210351</v>
       </c>
       <c r="L16">
-        <v>1.035572667279234</v>
+        <v>1.03368148710681</v>
       </c>
       <c r="M16">
-        <v>1.048576385998806</v>
+        <v>1.046826658697188</v>
       </c>
       <c r="N16">
-        <v>1.032893079257602</v>
+        <v>1.026355359512179</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04826872029194</v>
+        <v>1.046885695766774</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041208411477455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039674803977331</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023124476978849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004912892193146</v>
+        <v>1.002401327203898</v>
       </c>
       <c r="D17">
-        <v>1.029648823628715</v>
+        <v>1.027257023471638</v>
       </c>
       <c r="E17">
-        <v>1.022701612862712</v>
+        <v>1.020614213512294</v>
       </c>
       <c r="F17">
-        <v>1.035792509418545</v>
+        <v>1.03387293493048</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054454109714364</v>
+        <v>1.053205325780742</v>
       </c>
       <c r="J17">
-        <v>1.032183575604915</v>
+        <v>1.029767537688447</v>
       </c>
       <c r="K17">
-        <v>1.043156232760579</v>
+        <v>1.040803440604522</v>
       </c>
       <c r="L17">
-        <v>1.036322973996694</v>
+        <v>1.034270203654549</v>
       </c>
       <c r="M17">
-        <v>1.049200779656629</v>
+        <v>1.047312018418179</v>
       </c>
       <c r="N17">
-        <v>1.033649394675386</v>
+        <v>1.026484154131157</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048633978795809</v>
+        <v>1.047140911197947</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041664919876409</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040017997963311</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02321090774178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00562877481038</v>
+        <v>1.00304102841107</v>
       </c>
       <c r="D18">
-        <v>1.0300780842489</v>
+        <v>1.027621348929101</v>
       </c>
       <c r="E18">
-        <v>1.023163975914689</v>
+        <v>1.021013727982816</v>
       </c>
       <c r="F18">
-        <v>1.036103802700938</v>
+        <v>1.034128161734577</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054568982993466</v>
+        <v>1.05328571316612</v>
       </c>
       <c r="J18">
-        <v>1.032480807488044</v>
+        <v>1.029989639598726</v>
       </c>
       <c r="K18">
-        <v>1.043397071015159</v>
+        <v>1.040979746533469</v>
       </c>
       <c r="L18">
-        <v>1.036594499209397</v>
+        <v>1.034479334326448</v>
       </c>
       <c r="M18">
-        <v>1.049327138102055</v>
+        <v>1.047382700879375</v>
       </c>
       <c r="N18">
-        <v>1.033947048661881</v>
+        <v>1.026526646804339</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048497774944395</v>
+        <v>1.04696037857957</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041823645667455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040129948341171</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023227798841382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005652046984796</v>
+        <v>1.003082408258437</v>
       </c>
       <c r="D19">
-        <v>1.030026549372312</v>
+        <v>1.027583867102622</v>
       </c>
       <c r="E19">
-        <v>1.023066633029509</v>
+        <v>1.020932835734228</v>
       </c>
       <c r="F19">
-        <v>1.035839821215614</v>
+        <v>1.033875521007283</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054491775971837</v>
+        <v>1.053215600803479</v>
       </c>
       <c r="J19">
-        <v>1.032369824960474</v>
+        <v>1.029895520121156</v>
       </c>
       <c r="K19">
-        <v>1.043284484282777</v>
+        <v>1.040880783091143</v>
       </c>
       <c r="L19">
-        <v>1.03643626603707</v>
+        <v>1.034337105409536</v>
       </c>
       <c r="M19">
-        <v>1.049005932046224</v>
+        <v>1.047072511281285</v>
       </c>
       <c r="N19">
-        <v>1.033835908526391</v>
+        <v>1.026450772980661</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047920796936597</v>
+        <v>1.046391618113294</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041750392751458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040066959898916</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02318258388708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003727724825208</v>
+        <v>1.001437409922681</v>
       </c>
       <c r="D20">
-        <v>1.028619465876222</v>
+        <v>1.0264095361846</v>
       </c>
       <c r="E20">
-        <v>1.021406005542402</v>
+        <v>1.019509345908022</v>
       </c>
       <c r="F20">
-        <v>1.033993320902128</v>
+        <v>1.032227656178376</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053877032088968</v>
+        <v>1.052723113664713</v>
       </c>
       <c r="J20">
-        <v>1.031115701382041</v>
+        <v>1.028913034057831</v>
       </c>
       <c r="K20">
-        <v>1.042177075667932</v>
+        <v>1.040003375042525</v>
       </c>
       <c r="L20">
-        <v>1.035082617215554</v>
+        <v>1.033217607461934</v>
       </c>
       <c r="M20">
-        <v>1.047463662260344</v>
+        <v>1.045726542259812</v>
       </c>
       <c r="N20">
-        <v>1.032580003948627</v>
+        <v>1.026022558068776</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04617718297742</v>
+        <v>1.044802445443664</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040971316817073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03945089335221</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022962999684894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9990119215161362</v>
+        <v>0.9975050877580087</v>
       </c>
       <c r="D21">
-        <v>1.0254630084293</v>
+        <v>1.023882628792392</v>
       </c>
       <c r="E21">
-        <v>1.01782280300023</v>
+        <v>1.016588071502274</v>
       </c>
       <c r="F21">
-        <v>1.030621359934496</v>
+        <v>1.029410657148375</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052698794532134</v>
+        <v>1.051876875493356</v>
       </c>
       <c r="J21">
-        <v>1.02855101205171</v>
+        <v>1.027107491850916</v>
       </c>
       <c r="K21">
-        <v>1.039977517477427</v>
+        <v>1.03842523670203</v>
       </c>
       <c r="L21">
-        <v>1.032474205210465</v>
+        <v>1.031261848225279</v>
       </c>
       <c r="M21">
-        <v>1.045044931349225</v>
+        <v>1.043855466211748</v>
       </c>
       <c r="N21">
-        <v>1.030011672465273</v>
+        <v>1.02581833862133</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044222422741434</v>
+        <v>1.043281045058069</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039419376205878</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038338639111962</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022659235150371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9960061621727779</v>
+        <v>0.994979327815306</v>
       </c>
       <c r="D22">
-        <v>1.023457052623812</v>
+        <v>1.022264865717714</v>
       </c>
       <c r="E22">
-        <v>1.015555559945407</v>
+        <v>1.01472709520016</v>
       </c>
       <c r="F22">
-        <v>1.028502854773318</v>
+        <v>1.027633579629012</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051939930241165</v>
+        <v>1.051322339112704</v>
       </c>
       <c r="J22">
-        <v>1.026922655108474</v>
+        <v>1.025941475850775</v>
       </c>
       <c r="K22">
-        <v>1.038577716040629</v>
+        <v>1.037407789051453</v>
       </c>
       <c r="L22">
-        <v>1.030825030893476</v>
+        <v>1.030012344096478</v>
       </c>
       <c r="M22">
-        <v>1.043530050000272</v>
+        <v>1.042676791975421</v>
       </c>
       <c r="N22">
-        <v>1.028381003068403</v>
+        <v>1.025635989513967</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043023500888312</v>
+        <v>1.0423482064106</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038416245099891</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037604532055454</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022461099618031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9975961581318253</v>
+        <v>0.9962879368079091</v>
       </c>
       <c r="D23">
-        <v>1.024513453152281</v>
+        <v>1.023096526780428</v>
       </c>
       <c r="E23">
-        <v>1.016752646987727</v>
+        <v>1.015685541810028</v>
       </c>
       <c r="F23">
-        <v>1.029621671596015</v>
+        <v>1.028553069132127</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.052339446663211</v>
+        <v>1.051603527222359</v>
       </c>
       <c r="J23">
-        <v>1.027780349746677</v>
+        <v>1.026528591663225</v>
       </c>
       <c r="K23">
-        <v>1.039312506472099</v>
+        <v>1.037921364925858</v>
       </c>
       <c r="L23">
-        <v>1.031694078285469</v>
+        <v>1.030646771918376</v>
       </c>
       <c r="M23">
-        <v>1.044328532283428</v>
+        <v>1.043279117426051</v>
       </c>
       <c r="N23">
-        <v>1.029239915731371</v>
+        <v>1.025645671268155</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043655443602184</v>
+        <v>1.042824905245337</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038926188854651</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037957120842191</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022557308753846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003749301513027</v>
+        <v>1.001458986421161</v>
       </c>
       <c r="D24">
-        <v>1.028616825649948</v>
+        <v>1.02640646374013</v>
       </c>
       <c r="E24">
-        <v>1.021403682331916</v>
+        <v>1.019507237162606</v>
       </c>
       <c r="F24">
-        <v>1.033968059449103</v>
+        <v>1.032202117408186</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053865442327944</v>
+        <v>1.052711261654974</v>
       </c>
       <c r="J24">
-        <v>1.03110378513534</v>
+        <v>1.028900989300011</v>
       </c>
       <c r="K24">
-        <v>1.042159367890089</v>
+        <v>1.039985196039807</v>
       </c>
       <c r="L24">
-        <v>1.035065069640372</v>
+        <v>1.033200230387277</v>
       </c>
       <c r="M24">
-        <v>1.047423808642643</v>
+        <v>1.045686381147914</v>
       </c>
       <c r="N24">
-        <v>1.032568070779489</v>
+        <v>1.026007884797689</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046105132542519</v>
+        <v>1.044730084468831</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040931577825541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039408116844989</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022953608535202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010653470448637</v>
+        <v>1.007699244109859</v>
       </c>
       <c r="D25">
-        <v>1.033235414138132</v>
+        <v>1.030435658364468</v>
       </c>
       <c r="E25">
-        <v>1.026653033767778</v>
+        <v>1.024198331986473</v>
       </c>
       <c r="F25">
-        <v>1.038873050888795</v>
+        <v>1.036617567495951</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055524520448953</v>
+        <v>1.05405949311626</v>
       </c>
       <c r="J25">
-        <v>1.034827546092985</v>
+        <v>1.031970247384412</v>
       </c>
       <c r="K25">
-        <v>1.045338806017378</v>
+        <v>1.042579182676456</v>
       </c>
       <c r="L25">
-        <v>1.038851219956602</v>
+        <v>1.036432264608331</v>
       </c>
       <c r="M25">
-        <v>1.050896460818122</v>
+        <v>1.048672844282508</v>
       </c>
       <c r="N25">
-        <v>1.036297119904816</v>
+        <v>1.027633456278279</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048853477632188</v>
+        <v>1.047093652233469</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043176729873811</v>
+        <v>1.041239023952983</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023481873058205</v>
       </c>
     </row>
   </sheetData>
